--- a/data/n2v/tables/model-1-1325-20230828-9.xlsx
+++ b/data/n2v/tables/model-1-1325-20230828-9.xlsx
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
